--- a/NIDA_Expts/CCB_Grant/First Round of draft/Book1.xlsx
+++ b/NIDA_Expts/CCB_Grant/First Round of draft/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\Marios-temp\NIDA_Expts\CCB_Grant\First Round of draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\CCB_Grant\First Round of draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3511F2-26F8-47D2-9101-DB3D516AD045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B759508-F504-4E1A-9236-2ABA4D723835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{8DDEC3D8-1D3A-485F-9ACA-8321FB2F96EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DDEC3D8-1D3A-485F-9ACA-8321FB2F96EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,13 +264,13 @@
     <t>Y-</t>
   </si>
   <si>
-    <t>Meaning</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Cue selectivity</t>
+  </si>
+  <si>
+    <t>OS Value</t>
+  </si>
+  <si>
+    <t>State space</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,20 +691,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,30 +1109,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B41A5E7-1647-46BA-9F0A-535A1DCE05D6}">
   <dimension ref="A3:BD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="BD39" sqref="BD39"/>
+    <sheetView tabSelected="1" topLeftCell="AQ24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BA28" sqref="BA28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="7" max="9" width="6" customWidth="1"/>
-    <col min="19" max="20" width="4.140625" style="2" customWidth="1"/>
-    <col min="21" max="27" width="4.140625" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="4.140625" customWidth="1"/>
-    <col min="34" max="36" width="5.7109375" customWidth="1"/>
+    <col min="19" max="20" width="4.109375" style="2" customWidth="1"/>
+    <col min="21" max="27" width="4.109375" customWidth="1"/>
+    <col min="28" max="28" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="4.109375" customWidth="1"/>
+    <col min="34" max="36" width="5.6640625" customWidth="1"/>
     <col min="37" max="48" width="4" customWidth="1"/>
-    <col min="50" max="50" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>12</v>
@@ -1424,7 +1445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="I13" s="2"/>
@@ -1461,7 +1482,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1738,7 +1759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>12</v>
@@ -1770,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -1809,8 +1830,13 @@
       <c r="L26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+    </row>
+    <row r="27" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,13 +1875,13 @@
       </c>
       <c r="AZ27" s="23"/>
       <c r="BA27" s="9"/>
-      <c r="BB27" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC27" s="65"/>
+      <c r="BB27" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC27" s="66"/>
       <c r="BD27" s="23"/>
     </row>
-    <row r="28" spans="2:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:56" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1899,16 +1925,16 @@
         <v>41</v>
       </c>
       <c r="AZ28" s="23"/>
-      <c r="BA28" s="66"/>
-      <c r="BB28" s="66" t="s">
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="BC28" s="66" t="s">
+      <c r="BC28" s="62" t="s">
         <v>41</v>
       </c>
       <c r="BD28" s="23"/>
     </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1952,18 +1978,18 @@
         <v>46</v>
       </c>
       <c r="AZ29" s="23"/>
-      <c r="BA29" s="64" t="s">
+      <c r="BA29" s="63" t="s">
         <v>41</v>
       </c>
       <c r="BB29" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="BC29" s="61" t="s">
-        <v>51</v>
+      <c r="BC29" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="BD29" s="23"/>
     </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
@@ -2007,16 +2033,16 @@
         <v>48</v>
       </c>
       <c r="AZ30" s="23"/>
-      <c r="BA30" s="63"/>
+      <c r="BA30" s="64"/>
       <c r="BB30" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="BC30" s="57" t="s">
-        <v>50</v>
+      <c r="BC30" s="67" t="s">
+        <v>34</v>
       </c>
       <c r="BD30" s="23"/>
     </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
@@ -2060,18 +2086,18 @@
         <v>47</v>
       </c>
       <c r="AZ31" s="23"/>
-      <c r="BA31" s="62" t="s">
-        <v>63</v>
+      <c r="BA31" s="71" t="s">
+        <v>65</v>
       </c>
       <c r="BB31" s="56" t="s">
         <v>27</v>
       </c>
       <c r="BC31" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD31" s="23"/>
     </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:56" x14ac:dyDescent="0.3">
       <c r="AX32" s="54" t="s">
         <v>29</v>
       </c>
@@ -2079,16 +2105,16 @@
         <v>49</v>
       </c>
       <c r="AZ32" s="23"/>
-      <c r="BA32" s="64"/>
+      <c r="BA32" s="72"/>
       <c r="BB32" s="58" t="s">
         <v>30</v>
       </c>
       <c r="BC32" s="58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BD32" s="23"/>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AX33" s="50" t="s">
         <v>33</v>
       </c>
@@ -2096,16 +2122,16 @@
         <v>51</v>
       </c>
       <c r="AZ33" s="23"/>
-      <c r="BA33" s="64"/>
+      <c r="BA33" s="72"/>
       <c r="BB33" s="59" t="s">
         <v>28</v>
       </c>
       <c r="BC33" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BD33" s="23"/>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AX34" s="54" t="s">
         <v>34</v>
       </c>
@@ -2113,16 +2139,16 @@
         <v>50</v>
       </c>
       <c r="AZ34" s="23"/>
-      <c r="BA34" s="63"/>
+      <c r="BA34" s="73"/>
       <c r="BB34" s="60" t="s">
         <v>29</v>
       </c>
       <c r="BC34" s="60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BD34" s="23"/>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AX35" s="50" t="s">
         <v>61</v>
       </c>
@@ -2130,18 +2156,18 @@
         <v>61</v>
       </c>
       <c r="AZ35" s="23"/>
-      <c r="BA35" s="62" t="s">
+      <c r="BA35" s="65" t="s">
         <v>64</v>
       </c>
       <c r="BB35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BC35" s="56" t="s">
-        <v>48</v>
+      <c r="BC35" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="BD35" s="23"/>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AX36" s="54" t="s">
         <v>62</v>
       </c>
@@ -2149,16 +2175,16 @@
         <v>62</v>
       </c>
       <c r="AZ36" s="23"/>
-      <c r="BA36" s="64"/>
-      <c r="BB36" s="61" t="s">
-        <v>29</v>
+      <c r="BA36" s="63"/>
+      <c r="BB36" s="58" t="s">
+        <v>30</v>
       </c>
       <c r="BC36" s="61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BD36" s="23"/>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -2176,16 +2202,16 @@
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
       <c r="AZ37" s="23"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC37" s="58" t="s">
-        <v>46</v>
+      <c r="BA37" s="63"/>
+      <c r="BB37" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC37" s="69" t="s">
+        <v>47</v>
       </c>
       <c r="BD37" s="23"/>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -2203,16 +2229,16 @@
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
       <c r="AZ38" s="23"/>
-      <c r="BA38" s="63"/>
-      <c r="BB38" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC38" s="57" t="s">
+      <c r="BA38" s="64"/>
+      <c r="BB38" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC38" s="70" t="s">
         <v>49</v>
       </c>
       <c r="BD38" s="23"/>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="40" t="s">
         <v>14</v>
@@ -2237,7 +2263,7 @@
       <c r="BC39" s="23"/>
       <c r="BD39" s="23"/>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="39" t="s">
         <v>0</v>
@@ -2269,7 +2295,7 @@
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="26" t="s">
         <v>5</v>
@@ -2304,7 +2330,7 @@
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="28" t="s">
         <v>5</v>
@@ -2339,7 +2365,7 @@
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="28" t="s">
         <v>8</v>
@@ -2374,7 +2400,7 @@
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="28" t="s">
         <v>8</v>
@@ -2409,7 +2435,7 @@
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26" t="s">
@@ -2442,7 +2468,7 @@
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30" t="s">
@@ -2475,7 +2501,7 @@
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="28" t="s">
         <v>5</v>
@@ -2506,7 +2532,7 @@
       <c r="O47" s="24"/>
       <c r="P47" s="23"/>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="30" t="s">
         <v>8</v>
@@ -2537,7 +2563,7 @@
       <c r="O48" s="24"/>
       <c r="P48" s="23"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -2555,7 +2581,7 @@
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="40" t="s">
         <v>18</v>
@@ -2575,7 +2601,7 @@
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="39" t="s">
         <v>0</v>
@@ -2611,7 +2637,7 @@
       <c r="AA51" s="23"/>
       <c r="AB51" s="23"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="26" t="s">
         <v>5</v>
@@ -2648,7 +2674,7 @@
       <c r="AA52" s="23"/>
       <c r="AB52" s="23"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="28" t="s">
         <v>5</v>
@@ -2697,7 +2723,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="23"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="28" t="s">
         <v>8</v>
@@ -2749,7 +2775,7 @@
         <v>XA+</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="30" t="s">
         <v>8</v>
@@ -2801,7 +2827,7 @@
         <v>XA-</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33" t="s">
@@ -2851,7 +2877,7 @@
         <v>YA-</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34" t="s">
@@ -2901,7 +2927,7 @@
         <v>YA+</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -2942,7 +2968,7 @@
         <v>XB-</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -2983,7 +3009,7 @@
         <v>XB+</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="40" t="s">
         <v>35</v>
@@ -3023,7 +3049,7 @@
         <v>YB+</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="39" t="s">
         <v>0</v>
@@ -3070,7 +3096,7 @@
         <v>YB-</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="33" t="s">
         <v>5</v>
@@ -3119,7 +3145,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="37" t="s">
         <v>5</v>
@@ -3160,7 +3186,7 @@
         <v>C-</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="37" t="s">
         <v>8</v>
@@ -3213,7 +3239,7 @@
         <v>D-</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="34" t="s">
         <v>8</v>
@@ -3256,7 +3282,7 @@
         <v>D+</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26" t="s">
@@ -3287,7 +3313,7 @@
       <c r="AA66" s="23"/>
       <c r="AB66" s="23"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30" t="s">
@@ -3321,7 +3347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -3380,7 +3406,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -3417,7 +3443,7 @@
       <c r="AU69" s="41"/>
       <c r="AV69" s="41"/>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S70" s="24"/>
       <c r="T70" s="24" t="s">
         <v>34</v>
@@ -3446,7 +3472,7 @@
       <c r="AU70" s="41"/>
       <c r="AV70" s="41"/>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S71" s="24"/>
       <c r="T71" s="24"/>
       <c r="U71" s="23"/>
@@ -3473,7 +3499,7 @@
       <c r="AU71" s="41"/>
       <c r="AV71" s="41"/>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S72" s="24" t="s">
         <v>44</v>
       </c>
@@ -3504,7 +3530,7 @@
       <c r="AU72" s="41"/>
       <c r="AV72" s="41"/>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S73" s="24"/>
       <c r="T73" s="24"/>
       <c r="U73" s="23"/>
@@ -3531,7 +3557,7 @@
       <c r="AU73" s="41"/>
       <c r="AV73" s="41"/>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S74" s="24"/>
       <c r="T74" s="25"/>
       <c r="U74" s="24" t="s">
@@ -3570,7 +3596,7 @@
       <c r="AU74" s="41"/>
       <c r="AV74" s="41"/>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S75" s="24"/>
       <c r="T75" s="24" t="s">
         <v>27</v>
@@ -3599,7 +3625,7 @@
       <c r="AU75" s="41"/>
       <c r="AV75" s="41"/>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S76" s="24"/>
       <c r="T76" s="24" t="s">
         <v>28</v>
@@ -3628,7 +3654,7 @@
       <c r="AU76" s="41"/>
       <c r="AV76" s="41"/>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S77" s="24"/>
       <c r="T77" s="24" t="s">
         <v>30</v>
@@ -3657,7 +3683,7 @@
       <c r="AU77" s="41"/>
       <c r="AV77" s="41"/>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S78" s="24"/>
       <c r="T78" s="24" t="s">
         <v>29</v>
@@ -3686,7 +3712,7 @@
       <c r="AU78" s="41"/>
       <c r="AV78" s="41"/>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S79" s="24"/>
       <c r="T79" s="24" t="s">
         <v>33</v>
@@ -3715,7 +3741,7 @@
       <c r="AU79" s="24"/>
       <c r="AV79" s="41"/>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="S80" s="24"/>
       <c r="T80" s="24" t="s">
         <v>34</v>
@@ -3744,7 +3770,7 @@
       <c r="AU80" s="41"/>
       <c r="AV80" s="24"/>
     </row>
-    <row r="81" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="81" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S81" s="24"/>
       <c r="T81" s="24"/>
       <c r="U81" s="23"/>
@@ -3759,7 +3785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="82" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S82" s="24"/>
       <c r="T82" s="24"/>
       <c r="U82" s="23"/>
@@ -3808,7 +3834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="83" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S83" s="24"/>
       <c r="T83" s="24" t="s">
         <v>26</v>
@@ -3837,7 +3863,7 @@
       <c r="AU83" s="41"/>
       <c r="AV83" s="24"/>
     </row>
-    <row r="84" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="84" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S84" s="24"/>
       <c r="T84" s="24"/>
       <c r="U84" s="23"/>
@@ -3864,7 +3890,7 @@
       <c r="AU84" s="24"/>
       <c r="AV84" s="41"/>
     </row>
-    <row r="85" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="85" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S85" s="24"/>
       <c r="T85" s="25"/>
       <c r="U85" s="24" t="s">
@@ -3903,7 +3929,7 @@
       <c r="AU85" s="24"/>
       <c r="AV85" s="41"/>
     </row>
-    <row r="86" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="86" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S86" s="24"/>
       <c r="T86" s="24" t="s">
         <v>27</v>
@@ -3932,7 +3958,7 @@
       <c r="AU86" s="41"/>
       <c r="AV86" s="24"/>
     </row>
-    <row r="87" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="87" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S87" s="24"/>
       <c r="T87" s="24" t="s">
         <v>28</v>
@@ -3961,7 +3987,7 @@
       <c r="AU87" s="24"/>
       <c r="AV87" s="41"/>
     </row>
-    <row r="88" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="88" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S88" s="24"/>
       <c r="T88" s="24" t="s">
         <v>30</v>
@@ -3990,7 +4016,7 @@
       <c r="AU88" s="41"/>
       <c r="AV88" s="24"/>
     </row>
-    <row r="89" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="89" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S89" s="24"/>
       <c r="T89" s="24" t="s">
         <v>29</v>
@@ -4019,7 +4045,7 @@
       <c r="AU89" s="41"/>
       <c r="AV89" s="24"/>
     </row>
-    <row r="90" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="90" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S90" s="24"/>
       <c r="T90" s="24" t="s">
         <v>33</v>
@@ -4048,7 +4074,7 @@
       <c r="AU90" s="24"/>
       <c r="AV90" s="41"/>
     </row>
-    <row r="91" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="91" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S91" s="24"/>
       <c r="T91" s="24" t="s">
         <v>34</v>
@@ -4077,7 +4103,7 @@
       <c r="AU91" s="41"/>
       <c r="AV91" s="24"/>
     </row>
-    <row r="92" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="92" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S92" s="24"/>
       <c r="T92" s="24"/>
       <c r="U92" s="23"/>
@@ -4104,7 +4130,7 @@
       <c r="AU92" s="24"/>
       <c r="AV92" s="41"/>
     </row>
-    <row r="93" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="93" spans="19:48" x14ac:dyDescent="0.3">
       <c r="S93" s="24"/>
       <c r="T93" s="24"/>
       <c r="U93" s="23"/>
@@ -4131,7 +4157,7 @@
       <c r="AU93" s="24"/>
       <c r="AV93" s="41"/>
     </row>
-    <row r="94" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="94" spans="19:48" x14ac:dyDescent="0.3">
       <c r="AJ94" s="24" t="s">
         <v>51</v>
       </c>
@@ -4148,12 +4174,12 @@
       <c r="AU94" s="41"/>
       <c r="AV94" s="24"/>
     </row>
-    <row r="96" spans="19:48" x14ac:dyDescent="0.25">
+    <row r="96" spans="19:48" x14ac:dyDescent="0.3">
       <c r="AI96" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ97" s="24"/>
       <c r="AK97" s="24" t="s">
         <v>27</v>
@@ -4192,7 +4218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ98" s="24" t="s">
         <v>27</v>
       </c>
@@ -4209,7 +4235,7 @@
       <c r="AU98" s="41"/>
       <c r="AV98" s="41"/>
     </row>
-    <row r="99" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ99" s="24" t="s">
         <v>46</v>
       </c>
@@ -4226,7 +4252,7 @@
       <c r="AU99" s="41"/>
       <c r="AV99" s="41"/>
     </row>
-    <row r="100" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ100" s="24" t="s">
         <v>28</v>
       </c>
@@ -4243,7 +4269,7 @@
       <c r="AU100" s="41"/>
       <c r="AV100" s="41"/>
     </row>
-    <row r="101" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ101" s="24" t="s">
         <v>47</v>
       </c>
@@ -4260,7 +4286,7 @@
       <c r="AU101" s="41"/>
       <c r="AV101" s="41"/>
     </row>
-    <row r="102" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ102" s="24" t="s">
         <v>30</v>
       </c>
@@ -4277,7 +4303,7 @@
       <c r="AU102" s="41"/>
       <c r="AV102" s="41"/>
     </row>
-    <row r="103" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ103" s="24" t="s">
         <v>48</v>
       </c>
@@ -4294,7 +4320,7 @@
       <c r="AU103" s="41"/>
       <c r="AV103" s="41"/>
     </row>
-    <row r="104" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B104" s="38" t="s">
         <v>36</v>
       </c>
@@ -4314,7 +4340,7 @@
       <c r="AU104" s="41"/>
       <c r="AV104" s="41"/>
     </row>
-    <row r="105" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:48" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>42</v>
       </c>
@@ -4346,7 +4372,7 @@
       <c r="AU105" s="41"/>
       <c r="AV105" s="41"/>
     </row>
-    <row r="106" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:48" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>14</v>
       </c>
@@ -4378,7 +4404,7 @@
       <c r="AU106" s="41"/>
       <c r="AV106" s="41"/>
     </row>
-    <row r="107" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:48" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>41</v>
       </c>
@@ -4410,7 +4436,7 @@
       <c r="AU107" s="41"/>
       <c r="AV107" s="41"/>
     </row>
-    <row r="108" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ108" s="24" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4453,7 @@
       <c r="AU108" s="24"/>
       <c r="AV108" s="41"/>
     </row>
-    <row r="109" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ109" s="24" t="s">
         <v>51</v>
       </c>
@@ -4444,12 +4470,12 @@
       <c r="AU109" s="41"/>
       <c r="AV109" s="24"/>
     </row>
-    <row r="110" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AI110" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ111" s="24"/>
       <c r="AK111" s="24" t="s">
         <v>27</v>
@@ -4488,7 +4514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AJ112" s="24" t="s">
         <v>27</v>
       </c>
@@ -4505,7 +4531,7 @@
       <c r="AU112" s="41"/>
       <c r="AV112" s="41"/>
     </row>
-    <row r="113" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="113" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ113" s="24" t="s">
         <v>46</v>
       </c>
@@ -4522,7 +4548,7 @@
       <c r="AU113" s="41"/>
       <c r="AV113" s="41"/>
     </row>
-    <row r="114" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ114" s="24" t="s">
         <v>28</v>
       </c>
@@ -4539,7 +4565,7 @@
       <c r="AU114" s="41"/>
       <c r="AV114" s="41"/>
     </row>
-    <row r="115" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="115" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ115" s="24" t="s">
         <v>47</v>
       </c>
@@ -4556,7 +4582,7 @@
       <c r="AU115" s="41"/>
       <c r="AV115" s="41"/>
     </row>
-    <row r="116" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="116" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ116" s="24" t="s">
         <v>30</v>
       </c>
@@ -4573,7 +4599,7 @@
       <c r="AU116" s="41"/>
       <c r="AV116" s="41"/>
     </row>
-    <row r="117" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="117" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ117" s="24" t="s">
         <v>48</v>
       </c>
@@ -4590,7 +4616,7 @@
       <c r="AU117" s="41"/>
       <c r="AV117" s="41"/>
     </row>
-    <row r="118" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="118" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ118" s="24" t="s">
         <v>29</v>
       </c>
@@ -4607,7 +4633,7 @@
       <c r="AU118" s="41"/>
       <c r="AV118" s="41"/>
     </row>
-    <row r="119" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="119" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ119" s="24" t="s">
         <v>49</v>
       </c>
@@ -4624,7 +4650,7 @@
       <c r="AU119" s="41"/>
       <c r="AV119" s="41"/>
     </row>
-    <row r="120" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="120" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ120" s="24" t="s">
         <v>33</v>
       </c>
@@ -4641,7 +4667,7 @@
       <c r="AU120" s="41"/>
       <c r="AV120" s="41"/>
     </row>
-    <row r="121" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="121" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ121" s="24" t="s">
         <v>50</v>
       </c>
@@ -4658,7 +4684,7 @@
       <c r="AU121" s="41"/>
       <c r="AV121" s="41"/>
     </row>
-    <row r="122" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="122" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ122" s="24" t="s">
         <v>34</v>
       </c>
@@ -4675,7 +4701,7 @@
       <c r="AU122" s="24"/>
       <c r="AV122" s="24"/>
     </row>
-    <row r="123" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="123" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ123" s="24" t="s">
         <v>51</v>
       </c>
@@ -4692,12 +4718,12 @@
       <c r="AU123" s="24"/>
       <c r="AV123" s="24"/>
     </row>
-    <row r="125" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="125" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AI125" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="126" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ126" s="24"/>
       <c r="AK126" s="24" t="s">
         <v>27</v>
@@ -4736,7 +4762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="127" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ127" s="24" t="s">
         <v>27</v>
       </c>
@@ -4753,7 +4779,7 @@
       <c r="AU127" s="24"/>
       <c r="AV127" s="41"/>
     </row>
-    <row r="128" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="128" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ128" s="24" t="s">
         <v>46</v>
       </c>
@@ -4770,7 +4796,7 @@
       <c r="AU128" s="41"/>
       <c r="AV128" s="24"/>
     </row>
-    <row r="129" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="129" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ129" s="24" t="s">
         <v>28</v>
       </c>
@@ -4787,7 +4813,7 @@
       <c r="AU129" s="24"/>
       <c r="AV129" s="41"/>
     </row>
-    <row r="130" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="130" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ130" s="24" t="s">
         <v>47</v>
       </c>
@@ -4804,7 +4830,7 @@
       <c r="AU130" s="41"/>
       <c r="AV130" s="24"/>
     </row>
-    <row r="131" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="131" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ131" s="24" t="s">
         <v>30</v>
       </c>
@@ -4821,7 +4847,7 @@
       <c r="AU131" s="24"/>
       <c r="AV131" s="41"/>
     </row>
-    <row r="132" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="132" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ132" s="24" t="s">
         <v>48</v>
       </c>
@@ -4838,7 +4864,7 @@
       <c r="AU132" s="41"/>
       <c r="AV132" s="24"/>
     </row>
-    <row r="133" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="133" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ133" s="24" t="s">
         <v>29</v>
       </c>
@@ -4855,7 +4881,7 @@
       <c r="AU133" s="24"/>
       <c r="AV133" s="41"/>
     </row>
-    <row r="134" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="134" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ134" s="24" t="s">
         <v>49</v>
       </c>
@@ -4872,7 +4898,7 @@
       <c r="AU134" s="41"/>
       <c r="AV134" s="24"/>
     </row>
-    <row r="135" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="135" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ135" s="24" t="s">
         <v>33</v>
       </c>
@@ -4889,7 +4915,7 @@
       <c r="AU135" s="24"/>
       <c r="AV135" s="41"/>
     </row>
-    <row r="136" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="136" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ136" s="24" t="s">
         <v>50</v>
       </c>
@@ -4906,7 +4932,7 @@
       <c r="AU136" s="41"/>
       <c r="AV136" s="24"/>
     </row>
-    <row r="137" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="137" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ137" s="24" t="s">
         <v>34</v>
       </c>
@@ -4923,7 +4949,7 @@
       <c r="AU137" s="24"/>
       <c r="AV137" s="41"/>
     </row>
-    <row r="138" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="138" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ138" s="24" t="s">
         <v>51</v>
       </c>
@@ -4940,12 +4966,12 @@
       <c r="AU138" s="41"/>
       <c r="AV138" s="24"/>
     </row>
-    <row r="139" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="139" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AI139" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="140" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ140" s="24"/>
       <c r="AK140" s="24" t="s">
         <v>27</v>
@@ -4984,7 +5010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="141" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ141" s="24" t="s">
         <v>27</v>
       </c>
@@ -5001,7 +5027,7 @@
       <c r="AU141" s="41"/>
       <c r="AV141" s="41"/>
     </row>
-    <row r="142" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="142" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ142" s="24" t="s">
         <v>46</v>
       </c>
@@ -5018,7 +5044,7 @@
       <c r="AU142" s="41"/>
       <c r="AV142" s="41"/>
     </row>
-    <row r="143" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="143" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ143" s="24" t="s">
         <v>28</v>
       </c>
@@ -5035,7 +5061,7 @@
       <c r="AU143" s="41"/>
       <c r="AV143" s="41"/>
     </row>
-    <row r="144" spans="35:48" x14ac:dyDescent="0.25">
+    <row r="144" spans="35:48" x14ac:dyDescent="0.3">
       <c r="AJ144" s="24" t="s">
         <v>47</v>
       </c>
@@ -5052,7 +5078,7 @@
       <c r="AU144" s="41"/>
       <c r="AV144" s="41"/>
     </row>
-    <row r="145" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="145" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ145" s="24" t="s">
         <v>30</v>
       </c>
@@ -5069,7 +5095,7 @@
       <c r="AU145" s="41"/>
       <c r="AV145" s="41"/>
     </row>
-    <row r="146" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="146" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ146" s="24" t="s">
         <v>48</v>
       </c>
@@ -5086,7 +5112,7 @@
       <c r="AU146" s="41"/>
       <c r="AV146" s="41"/>
     </row>
-    <row r="147" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="147" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ147" s="24" t="s">
         <v>29</v>
       </c>
@@ -5103,7 +5129,7 @@
       <c r="AU147" s="41"/>
       <c r="AV147" s="41"/>
     </row>
-    <row r="148" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="148" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ148" s="24" t="s">
         <v>49</v>
       </c>
@@ -5120,7 +5146,7 @@
       <c r="AU148" s="41"/>
       <c r="AV148" s="41"/>
     </row>
-    <row r="149" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="149" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ149" s="24" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5163,7 @@
       <c r="AU149" s="41"/>
       <c r="AV149" s="41"/>
     </row>
-    <row r="150" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="150" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ150" s="24" t="s">
         <v>50</v>
       </c>
@@ -5154,7 +5180,7 @@
       <c r="AU150" s="41"/>
       <c r="AV150" s="41"/>
     </row>
-    <row r="151" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="151" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ151" s="24" t="s">
         <v>34</v>
       </c>
@@ -5171,7 +5197,7 @@
       <c r="AU151" s="24"/>
       <c r="AV151" s="41"/>
     </row>
-    <row r="152" spans="36:48" x14ac:dyDescent="0.25">
+    <row r="152" spans="36:48" x14ac:dyDescent="0.3">
       <c r="AJ152" s="24" t="s">
         <v>51</v>
       </c>
